--- a/data/trans_bre/P16A97-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A97-Estudios-trans_bre.xlsx
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,89; 14,19</t>
+          <t>4,94; 14,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,29; 25,68</t>
+          <t>12,82; 25,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,09; 29,5</t>
+          <t>13,95; 29,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,64; 167,64</t>
+          <t>37,84; 174,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,46; 65,18</t>
+          <t>27,95; 63,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>42,28; 115,25</t>
+          <t>44,06; 114,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,35; 6,05</t>
+          <t>2,27; 5,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,59; 16,56</t>
+          <t>9,51; 16,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,24; 13,18</t>
+          <t>7,22; 13,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>78,87; 348,86</t>
+          <t>81,29; 346,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>85,57; 188,66</t>
+          <t>84,72; 183,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>67,58; 158,04</t>
+          <t>68,55; 161,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 9,81</t>
+          <t>1,5; 9,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,26; 18,57</t>
+          <t>5,7; 18,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 5,35</t>
+          <t>-4,49; 6,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,95; 382,68</t>
+          <t>19,98; 370,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>47,79; 329,08</t>
+          <t>49,73; 298,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-38,49; 73,43</t>
+          <t>-36,46; 94,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,1; 7,6</t>
+          <t>4,19; 7,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,49; 20,69</t>
+          <t>14,73; 20,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,19; 13,9</t>
+          <t>8,43; 13,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>81,11; 208,63</t>
+          <t>84,85; 204,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>76,48; 126,14</t>
+          <t>75,97; 124,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>58,44; 119,16</t>
+          <t>61,29; 119,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/P16A97-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A97-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,94; 14,29</t>
+          <t>5,08; 14,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,82; 25,68</t>
+          <t>12,3; 25,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,95; 29,02</t>
+          <t>13,45; 28,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>37,84; 174,86</t>
+          <t>42,86; 179,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,95; 63,62</t>
+          <t>26,1; 63,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>44,06; 114,43</t>
+          <t>41,33; 115,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 5,74</t>
+          <t>2,31; 5,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,51; 16,18</t>
+          <t>9,36; 16,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,22; 13,36</t>
+          <t>7,35; 13,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>81,29; 346,25</t>
+          <t>80,31; 371,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>84,72; 183,73</t>
+          <t>85,62; 183,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>68,55; 161,74</t>
+          <t>71,94; 161,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 9,62</t>
+          <t>1,26; 9,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,7; 18,35</t>
+          <t>5,43; 19,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 6,0</t>
+          <t>-4,6; 5,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,98; 370,8</t>
+          <t>21,22; 393,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>49,73; 298,9</t>
+          <t>41,84; 322,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-36,46; 94,83</t>
+          <t>-38,26; 73,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,19; 7,55</t>
+          <t>4,17; 7,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,73; 20,77</t>
+          <t>14,69; 20,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,43; 13,86</t>
+          <t>8,53; 13,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>84,85; 204,92</t>
+          <t>84,86; 214,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>75,97; 124,82</t>
+          <t>75,78; 126,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>61,29; 119,73</t>
+          <t>61,57; 117,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
